--- a/data/RespirationRate/Block4_Day14_plate3_results_Oxygen.xlsx
+++ b/data/RespirationRate/Block4_Day14_plate3_results_Oxygen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PreSens\SDR_v4.0.0\Resource Quality Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/mlfearon_umich_edu/Documents/PROJECTS/MHMP Daphnia Duffy/Resource Quality/Data and Code/resource-quality-expt/data/RespirationRate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C57E1B2A-164C-4D7F-BF27-6E7005DAADDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{C57E1B2A-164C-4D7F-BF27-6E7005DAADDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25A0A41D-BCC9-41F6-A0C0-9C753F270403}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="16875" windowHeight="10522" xr2:uid="{975AC756-0AB5-4DD6-AB68-CDB30DB41494}"/>
+    <workbookView xWindow="525" yWindow="510" windowWidth="19185" windowHeight="10200" xr2:uid="{975AC756-0AB5-4DD6-AB68-CDB30DB41494}"/>
   </bookViews>
   <sheets>
     <sheet name="Oxygen Orginal" sheetId="2" r:id="rId1"/>
@@ -860,11 +860,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3055B917-6FBC-4AD8-8070-E7D10396D069}">
   <dimension ref="A1:AF99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:XFD12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -893,7 +895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -907,7 +909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -921,7 +923,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -941,7 +943,7 @@
         <v>46.95</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -955,7 +957,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -969,7 +971,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H7" t="s">
         <v>27</v>
       </c>
@@ -977,7 +979,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H8" t="s">
         <v>28</v>
       </c>
@@ -985,7 +987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1080,7 +1082,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1172,7 +1174,7 @@
         <v>21.77</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1264,7 +1266,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1356,7 +1358,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1448,7 +1450,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1540,7 +1542,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1632,7 +1634,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1724,7 +1726,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -1816,7 +1818,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -1908,7 +1910,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -2000,7 +2002,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -2092,7 +2094,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -2184,7 +2186,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -2276,7 +2278,7 @@
         <v>21.77</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -2368,7 +2370,7 @@
         <v>21.77</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -2460,7 +2462,7 @@
         <v>21.77</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -2552,7 +2554,7 @@
         <v>21.77</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>21.77</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -2736,7 +2738,7 @@
         <v>21.77</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2828,7 +2830,7 @@
         <v>21.77</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>21.77</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -3196,7 +3198,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -3288,7 +3290,7 @@
         <v>21.73</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -3380,7 +3382,7 @@
         <v>21.73</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -3472,7 +3474,7 @@
         <v>21.73</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -3564,7 +3566,7 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -3656,7 +3658,7 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -3748,7 +3750,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -3840,7 +3842,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -3932,7 +3934,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -4024,7 +4026,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -4116,7 +4118,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -4208,7 +4210,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -4300,7 +4302,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -4392,7 +4394,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -4484,7 +4486,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -4576,7 +4578,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -4668,7 +4670,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -4760,7 +4762,7 @@
         <v>21.65</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -4852,7 +4854,7 @@
         <v>21.63</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -4944,7 +4946,7 @@
         <v>21.63</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -5036,7 +5038,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -5128,7 +5130,7 @@
         <v>21.63</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -5220,7 +5222,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -5312,7 +5314,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>107</v>
       </c>
@@ -5404,7 +5406,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -5496,7 +5498,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -5588,7 +5590,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -5680,7 +5682,7 @@
         <v>21.59</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -5772,7 +5774,7 @@
         <v>21.59</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -5864,7 +5866,7 @@
         <v>21.59</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>113</v>
       </c>
@@ -5956,7 +5958,7 @@
         <v>21.58</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -6048,7 +6050,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -6140,7 +6142,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -6232,7 +6234,7 @@
         <v>21.58</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -6324,7 +6326,7 @@
         <v>21.58</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -6416,7 +6418,7 @@
         <v>21.58</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -6508,7 +6510,7 @@
         <v>21.58</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -6600,7 +6602,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -6692,7 +6694,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -6784,7 +6786,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -6876,7 +6878,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -6968,7 +6970,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>125</v>
       </c>
@@ -7060,7 +7062,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -7152,7 +7154,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -7244,7 +7246,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -7336,7 +7338,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -7428,7 +7430,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>130</v>
       </c>
@@ -7520,7 +7522,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -7612,7 +7614,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>132</v>
       </c>
@@ -7704,7 +7706,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>133</v>
       </c>
@@ -7796,7 +7798,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>134</v>
       </c>
@@ -7888,7 +7890,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>135</v>
       </c>
@@ -7980,7 +7982,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>136</v>
       </c>
@@ -8072,7 +8074,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -8164,7 +8166,7 @@
         <v>21.58</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -8256,7 +8258,7 @@
         <v>21.58</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>139</v>
       </c>
@@ -8348,7 +8350,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>140</v>
       </c>
@@ -8440,7 +8442,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>141</v>
       </c>
@@ -8532,7 +8534,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>142</v>
       </c>
@@ -8624,7 +8626,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>143</v>
       </c>
@@ -8716,7 +8718,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>144</v>
       </c>
@@ -8808,7 +8810,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>145</v>
       </c>
@@ -8900,7 +8902,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>146</v>
       </c>
@@ -9003,7 +9005,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
